--- a/30_請求書.xlsx
+++ b/30_請求書.xlsx
@@ -4,21 +4,23 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="請求書" sheetId="1" r:id="rId1"/>
-    <sheet name="商品リスト" sheetId="2" r:id="rId2"/>
+    <sheet name="商品リスト" sheetId="2" r:id="rId1"/>
+    <sheet name="見積書" sheetId="4" r:id="rId2"/>
+    <sheet name="請求書" sheetId="1" r:id="rId3"/>
+    <sheet name="納品書" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">商品リスト!$A$1:$C$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">商品リスト!$A$1:$C$10</definedName>
   </definedNames>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="42">
   <si>
     <t>請求書</t>
     <rPh sb="0" eb="3">
@@ -44,22 +46,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>下記のとおり、ご請求申し上げます</t>
-    <rPh sb="0" eb="2">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>セイキュウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>モウ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>〒141-0000</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -110,6 +96,120 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>【振込先】</t>
+    <rPh sb="1" eb="4">
+      <t>フリコミサキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>○○銀行  五反田支店</t>
+    <rPh sb="2" eb="4">
+      <t>ギンコウ</t>
+    </rPh>
+    <rPh sb="6" eb="11">
+      <t>ゴタンダシテン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>普通xxxxxxxxxx</t>
+    <rPh sb="0" eb="2">
+      <t>フツウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>小計</t>
+    <rPh sb="0" eb="2">
+      <t>ショウケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>消費税額</t>
+    <rPh sb="0" eb="4">
+      <t>ショウヒゼイガク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本体価格</t>
+    <rPh sb="0" eb="2">
+      <t>ホンタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>折り畳みテーブル</t>
+    <rPh sb="0" eb="1">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>タタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OAチェア</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レターケース</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラウンドテーブル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ミーティングテーブル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OAチェア　肘付き</t>
+    <rPh sb="6" eb="8">
+      <t>ヒジツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メッシュチェア</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スチールラック</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ホワイトボード</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　　振込合計金額</t>
+    <rPh sb="10" eb="16">
+      <t>フリコミゴウケイキンガク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>註文番号</t>
+    <rPh sb="0" eb="4">
+      <t>チュウモンバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品名</t>
+    <rPh sb="0" eb="3">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>単価</t>
     <rPh sb="0" eb="2">
       <t>タンカ</t>
@@ -131,117 +231,111 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>【振込先】</t>
-    <rPh sb="1" eb="4">
-      <t>フリコミサキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>○○銀行  五反田支店</t>
-    <rPh sb="2" eb="4">
-      <t>ギンコウ</t>
-    </rPh>
-    <rPh sb="6" eb="11">
-      <t>ゴタンダシテン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>普通xxxxxxxxxx</t>
+    <t>←TODAY()</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>←[Ctrl]+[;]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>見積書</t>
+    <rPh sb="0" eb="3">
+      <t>ミツモリショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>納品書</t>
+    <rPh sb="0" eb="3">
+      <t>ノウヒンショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>下記のとおり、御見積り申し上げます。</t>
     <rPh sb="0" eb="2">
-      <t>フツウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>小計</t>
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ミツモ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>モウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>納品場所：</t>
+    <rPh sb="0" eb="4">
+      <t>ノウヒンバショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>有効期限：</t>
+    <rPh sb="0" eb="4">
+      <t>ユウコウキゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>発行日から30日</t>
+    <rPh sb="0" eb="3">
+      <t>ハッコウビ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>下記のとおり、納品いたしました。</t>
     <rPh sb="0" eb="2">
-      <t>ショウケイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>消費税額</t>
-    <rPh sb="0" eb="4">
-      <t>ショウヒゼイガク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>本体価格</t>
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ノウヒン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>摘要：</t>
     <rPh sb="0" eb="2">
-      <t>ホンタイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カカク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>折り畳みテーブル</t>
-    <rPh sb="0" eb="1">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>タタ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>OAチェア</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>レターケース</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ラウンドテーブル</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ミーティングテーブル</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>OAチェア　肘付き</t>
-    <rPh sb="6" eb="8">
-      <t>ヒジツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>メッシュチェア</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>スチールラック</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ホワイトボード</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>列1</t>
-  </si>
-  <si>
-    <t>列2</t>
-  </si>
-  <si>
-    <t>列3</t>
-  </si>
-  <si>
-    <t>列4</t>
-  </si>
-  <si>
-    <t>列5</t>
-  </si>
-  <si>
-    <t>　　　　　　　　　　振込合計金額</t>
-    <rPh sb="10" eb="16">
-      <t>フリコミゴウケイキンガク</t>
+      <t>テキヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>毎度ありがとうございます。</t>
+    <rPh sb="0" eb="2">
+      <t>マイド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>←TODAY()</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>下記のとおり、ご請求申し上げます。</t>
+    <rPh sb="0" eb="2">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セイキュウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>モウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ア</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -250,7 +344,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="#,##0&quot;円&quot;"/>
+    <numFmt numFmtId="178" formatCode="[$-411]ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+  </numFmts>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,8 +370,72 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -288,13 +450,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
+        <fgColor theme="1" tint="0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,17 +484,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -433,6 +596,15 @@
       </left>
       <right/>
       <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -445,29 +617,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -477,29 +641,175 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="38" fontId="0" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="21">
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -548,24 +858,41 @@
     <dxf>
       <border outline="0">
         <bottom style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
         <right style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </right>
         <top style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </top>
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -574,11 +901,63 @@
         </top>
         <bottom style="thin">
           <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border outline="0">
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -591,6 +970,8 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -626,6 +1007,37 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="thin">
           <color indexed="64"/>
@@ -634,6 +1046,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -641,15 +1062,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -669,28 +1081,56 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル2" displayName="テーブル2" ref="A10:E20" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="3" tableBorderDxfId="4">
-  <autoFilter ref="A10:E20"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="列1"/>
-    <tableColumn id="2" name="列2"/>
-    <tableColumn id="3" name="列3" dataDxfId="2"/>
-    <tableColumn id="4" name="列4"/>
-    <tableColumn id="5" name="列5" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A1:C10" totalsRowShown="0" headerRowBorderDxfId="20" tableBorderDxfId="19" totalsRowBorderDxfId="18">
+  <autoFilter ref="A1:C10"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="注文番号" dataDxfId="17"/>
+    <tableColumn id="2" name="商品名" dataDxfId="16"/>
+    <tableColumn id="3" name="本体価格" dataDxfId="15" dataCellStyle="桁区切り"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A1:C10" totalsRowShown="0" headerRowBorderDxfId="9" tableBorderDxfId="10" totalsRowBorderDxfId="8">
-  <autoFilter ref="A1:C10"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="注文番号" dataDxfId="5"/>
-    <tableColumn id="2" name="商品名" dataDxfId="6"/>
-    <tableColumn id="3" name="本体価格" dataDxfId="7" dataCellStyle="桁区切り"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="テーブル25" displayName="テーブル25" ref="A10:E19" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="5" tableBorderDxfId="6">
+  <autoFilter ref="A10:E19"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="註文番号"/>
+    <tableColumn id="2" name="商品名"/>
+    <tableColumn id="3" name="単価" dataDxfId="4"/>
+    <tableColumn id="4" name="数量"/>
+    <tableColumn id="5" name="金額" dataDxfId="3" dataCellStyle="桁区切り"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル2" displayName="テーブル2" ref="A10:E19" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="11" tableBorderDxfId="12">
+  <autoFilter ref="A10:E19"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="註文番号"/>
+    <tableColumn id="2" name="商品名"/>
+    <tableColumn id="3" name="単価" dataDxfId="14"/>
+    <tableColumn id="4" name="数量"/>
+    <tableColumn id="5" name="金額" dataDxfId="13" dataCellStyle="桁区切り"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="テーブル24" displayName="テーブル24" ref="A10:E19" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="9" tableBorderDxfId="10">
+  <autoFilter ref="A10:E19"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="註文番号"/>
+    <tableColumn id="2" name="商品名"/>
+    <tableColumn id="3" name="単価" dataDxfId="8"/>
+    <tableColumn id="4" name="数量"/>
+    <tableColumn id="5" name="金額" dataDxfId="7" dataCellStyle="桁区切り"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -981,179 +1421,390 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.88671875" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="3" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="10">
+        <v>1001</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="4">
+        <v>15900</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="10">
+        <v>1002</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="4">
+        <v>19900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="10">
+        <v>1003</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="4">
+        <v>49400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="10">
+        <v>2001</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="4">
+        <v>9800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="10">
+        <v>2002</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="4">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="10">
+        <v>2003</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="4">
+        <v>25400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="10">
+        <v>3001</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="4">
+        <v>12300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="10">
+        <v>3002</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="4">
+        <v>26700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="11">
+        <v>3003</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="9">
+        <v>3500</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+    </row>
+    <row r="3" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="D3" s="4" t="s">
+      <c r="B3" s="16"/>
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="D4" s="30">
+        <f ca="1">TODAY()</f>
+        <v>44963</v>
+      </c>
+      <c r="E4" s="30"/>
+      <c r="F4" s="36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D5" s="29">
+        <v>44963</v>
+      </c>
+      <c r="E5" s="29"/>
+      <c r="F5" s="37" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="E6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="E6" t="s">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="28">
+        <f>E19</f>
+        <v>0</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="C7" s="16" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="E10" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="7" t="s">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="18"/>
+      <c r="B11" s="3" t="str">
+        <f xml:space="preserve"> IF(A11="","",VLOOKUP(A11,テーブル1[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C11" s="25" t="str">
+        <f>IFERROR(VLOOKUP(A11,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4">
+        <f>IFERROR(C11*D11,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="18"/>
+      <c r="B12" s="3" t="str">
+        <f xml:space="preserve"> IF(A12="","",VLOOKUP(A12,テーブル1[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C12" s="25" t="str">
+        <f>IFERROR(VLOOKUP(A12,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="4">
+        <f t="shared" ref="E12:E16" si="0">IFERROR(C12*D12,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="18"/>
+      <c r="B13" s="3" t="str">
+        <f xml:space="preserve"> IF(A13="","",VLOOKUP(A13,テーブル1[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C13" s="25" t="str">
+        <f>IFERROR(VLOOKUP(A13,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="18"/>
+      <c r="B14" s="3" t="str">
+        <f xml:space="preserve"> IF(A14="","",VLOOKUP(A14,テーブル1[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C14" s="25" t="str">
+        <f>IFERROR(VLOOKUP(A14,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="18"/>
+      <c r="B15" s="3" t="str">
+        <f xml:space="preserve"> IF(A15="","",VLOOKUP(A15,テーブル1[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C15" s="25" t="str">
+        <f>IFERROR(VLOOKUP(A15,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="18"/>
+      <c r="B16" s="3" t="str">
+        <f xml:space="preserve"> IF(A16="","",VLOOKUP(A16,テーブル1[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C16" s="25" t="str">
+        <f>IFERROR(VLOOKUP(A16,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C17" s="22" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="7"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="4">
+        <f>SUM(E11:E16)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C18" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="7"/>
+      <c r="A18" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="15">
+        <v>0.08</v>
+      </c>
+      <c r="E18" s="26">
+        <f>ROUNDDOWN(E17*D18,0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="19">
-        <v>0.08</v>
-      </c>
-      <c r="E19" s="23"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="16"/>
-      <c r="B20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="7"/>
+      <c r="A19" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="19"/>
+      <c r="E19" s="27">
+        <f>E17+E18</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
     <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B8"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="C8:E8"/>
   </mergeCells>
@@ -1166,136 +1817,522 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.88671875" customWidth="1"/>
-    <col min="2" max="2" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="10" t="s">
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="3" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="43"/>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="44"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="D4" s="30">
+        <f ca="1">TODAY()</f>
+        <v>44963</v>
+      </c>
+      <c r="E4" s="30"/>
+      <c r="F4" s="36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D5" s="29">
+        <v>44963</v>
+      </c>
+      <c r="E5" s="29"/>
+      <c r="F5" s="37" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="28">
+        <f>E19</f>
+        <v>0</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="C7" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="45"/>
+      <c r="B11" s="3" t="str">
+        <f xml:space="preserve"> IF(A11="","",VLOOKUP(A11,テーブル1[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C11" s="25" t="str">
+        <f>IFERROR(VLOOKUP(A11,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D11" s="46"/>
+      <c r="E11" s="4">
+        <f>IFERROR(C11*D11,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="45"/>
+      <c r="B12" s="3" t="str">
+        <f xml:space="preserve"> IF(A12="","",VLOOKUP(A12,テーブル1[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C12" s="25" t="str">
+        <f>IFERROR(VLOOKUP(A12,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D12" s="46"/>
+      <c r="E12" s="4">
+        <f t="shared" ref="E12:E16" si="0">IFERROR(C12*D12,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="45"/>
+      <c r="B13" s="3" t="str">
+        <f xml:space="preserve"> IF(A13="","",VLOOKUP(A13,テーブル1[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C13" s="25" t="str">
+        <f>IFERROR(VLOOKUP(A13,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D13" s="46"/>
+      <c r="E13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="45"/>
+      <c r="B14" s="3" t="str">
+        <f xml:space="preserve"> IF(A14="","",VLOOKUP(A14,テーブル1[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C14" s="25" t="str">
+        <f>IFERROR(VLOOKUP(A14,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D14" s="46"/>
+      <c r="E14" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="45"/>
+      <c r="B15" s="3" t="str">
+        <f xml:space="preserve"> IF(A15="","",VLOOKUP(A15,テーブル1[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C15" s="25" t="str">
+        <f>IFERROR(VLOOKUP(A15,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D15" s="46"/>
+      <c r="E15" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="45"/>
+      <c r="B16" s="3" t="str">
+        <f xml:space="preserve"> IF(A16="","",VLOOKUP(A16,テーブル1[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C16" s="25" t="str">
+        <f>IFERROR(VLOOKUP(A16,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D16" s="46"/>
+      <c r="E16" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C17" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="4">
+        <f>SUM(E11:E16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="14">
-        <v>1001</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="8">
-        <v>15900</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="14">
-        <v>1002</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="8">
-        <v>19900</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="14">
-        <v>1003</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="8">
-        <v>49400</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="14">
-        <v>2001</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="8">
-        <v>9800</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="14">
-        <v>2002</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="B18" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="15">
+        <v>0.08</v>
+      </c>
+      <c r="E18" s="26">
+        <f>ROUNDDOWN(E17*D18,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="12"/>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="8">
-        <v>14000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="14">
-        <v>2003</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="8">
-        <v>25400</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="14">
-        <v>3001</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="8">
-        <v>12300</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="14">
-        <v>3002</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="8">
-        <v>26700</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="15">
-        <v>3003</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="13">
-        <v>3500</v>
+      <c r="D19" s="19"/>
+      <c r="E19" s="27">
+        <f>E17+E18</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D4:E4"/>
+  </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+    </row>
+    <row r="3" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="D4" s="30">
+        <f ca="1">TODAY()</f>
+        <v>44963</v>
+      </c>
+      <c r="E4" s="30"/>
+      <c r="F4" s="36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D5" s="29">
+        <v>44963</v>
+      </c>
+      <c r="E5" s="29"/>
+      <c r="F5" s="36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="40"/>
+      <c r="E6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="18"/>
+      <c r="B11" s="3" t="str">
+        <f xml:space="preserve"> IF(A11="","",VLOOKUP(A11,テーブル1[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C11" s="25" t="str">
+        <f>IFERROR(VLOOKUP(A11,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4">
+        <f>IFERROR(C11*D11,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="18"/>
+      <c r="B12" s="3" t="str">
+        <f xml:space="preserve"> IF(A12="","",VLOOKUP(A12,テーブル1[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C12" s="25" t="str">
+        <f>IFERROR(VLOOKUP(A12,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="4">
+        <f t="shared" ref="E12:E16" si="0">IFERROR(C12*D12,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="18"/>
+      <c r="B13" s="3" t="str">
+        <f xml:space="preserve"> IF(A13="","",VLOOKUP(A13,テーブル1[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C13" s="25" t="str">
+        <f>IFERROR(VLOOKUP(A13,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="18"/>
+      <c r="B14" s="3" t="str">
+        <f xml:space="preserve"> IF(A14="","",VLOOKUP(A14,テーブル1[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C14" s="25" t="str">
+        <f>IFERROR(VLOOKUP(A14,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="18"/>
+      <c r="B15" s="3" t="str">
+        <f xml:space="preserve"> IF(A15="","",VLOOKUP(A15,テーブル1[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C15" s="25" t="str">
+        <f>IFERROR(VLOOKUP(A15,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="18"/>
+      <c r="B16" s="3" t="str">
+        <f xml:space="preserve"> IF(A16="","",VLOOKUP(A16,テーブル1[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C16" s="25" t="str">
+        <f>IFERROR(VLOOKUP(A16,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C17" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="4">
+        <f>SUM(E11:E16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="15">
+        <v>0.08</v>
+      </c>
+      <c r="E18" s="26">
+        <f>ROUNDDOWN(E17*D18,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="12"/>
+      <c r="C19" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="19"/>
+      <c r="E19" s="27">
+        <f>E17+E18</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>